--- a/NRIDataDictionary3.xlsx
+++ b/NRIDataDictionary3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rojano\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alba/Documents/GitHub/ClimateChangeAgriculture/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA13DABC-7974-5E42-81E2-2C74A24B4AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="14850" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25720" windowHeight="14860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NRIDataDictionary" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,25 @@
     <sheet name="NRIDataDictionary2" sheetId="4" r:id="rId4"/>
     <sheet name="Var to Analyze" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="914">
   <si>
     <t>Sort</t>
   </si>
@@ -2734,9 +2748,6 @@
     <t>Step 3</t>
   </si>
   <si>
-    <t>av_norm_N100</t>
-  </si>
-  <si>
     <t>b1_pp_tr_m_N100</t>
   </si>
   <si>
@@ -2762,12 +2773,18 @@
   </si>
   <si>
     <t>weird result</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>NOT NEEDED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
@@ -3330,7 +3347,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Pentagon 1"/>
+        <xdr:cNvPr id="2" name="Pentagon 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3392,7 +3415,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Pentagon 2"/>
+        <xdr:cNvPr id="3" name="Pentagon 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3454,7 +3483,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Pentagon 3"/>
+        <xdr:cNvPr id="4" name="Pentagon 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3520,7 +3555,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Pentagon 4"/>
+        <xdr:cNvPr id="5" name="Pentagon 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3582,7 +3623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Pentagon 5"/>
+        <xdr:cNvPr id="6" name="Pentagon 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3652,7 +3699,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Pentagon 6"/>
+        <xdr:cNvPr id="7" name="Pentagon 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3977,18 +4030,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H380"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4014,7 +4069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4040,7 +4095,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4066,7 +4121,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4092,7 +4147,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4118,7 +4173,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4144,7 +4199,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4170,7 +4225,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4196,7 +4251,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4222,7 +4277,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4248,7 +4303,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4274,7 +4329,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4300,7 +4355,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4326,7 +4381,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4352,7 +4407,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4378,7 +4433,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4404,7 +4459,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4430,7 +4485,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4456,7 +4511,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4482,7 +4537,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4508,7 +4563,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4534,7 +4589,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4560,7 +4615,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4586,7 +4641,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4612,7 +4667,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4638,7 +4693,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4664,7 +4719,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4690,7 +4745,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4716,7 +4771,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4742,7 +4797,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4768,7 +4823,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4794,7 +4849,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4820,7 +4875,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4846,7 +4901,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4872,7 +4927,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4898,7 +4953,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4924,7 +4979,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4950,7 +5005,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4976,7 +5031,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5002,7 +5057,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5028,7 +5083,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5054,7 +5109,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5080,7 +5135,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5106,7 +5161,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5132,7 +5187,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5158,7 +5213,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5184,7 +5239,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5210,7 +5265,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5236,7 +5291,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5262,7 +5317,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5288,7 +5343,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5314,7 +5369,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5340,7 +5395,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5366,7 +5421,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5392,7 +5447,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5418,7 +5473,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5444,7 +5499,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5470,7 +5525,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5496,7 +5551,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5522,7 +5577,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5548,7 +5603,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5574,7 +5629,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5600,7 +5655,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5626,7 +5681,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5652,7 +5707,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5678,7 +5733,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5704,7 +5759,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5730,7 +5785,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5756,7 +5811,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5782,7 +5837,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5808,7 +5863,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5834,7 +5889,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5860,7 +5915,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5886,7 +5941,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5912,7 +5967,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5938,7 +5993,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5964,7 +6019,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5990,7 +6045,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6016,7 +6071,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6042,7 +6097,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6068,7 +6123,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6094,7 +6149,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6120,7 +6175,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6146,7 +6201,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6172,7 +6227,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6198,7 +6253,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6224,7 +6279,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6250,7 +6305,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6276,7 +6331,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6302,7 +6357,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6328,7 +6383,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6354,7 +6409,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6380,7 +6435,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6406,7 +6461,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6432,7 +6487,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6458,7 +6513,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6484,7 +6539,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6510,7 +6565,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6536,7 +6591,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6562,7 +6617,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6588,7 +6643,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6614,7 +6669,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6640,7 +6695,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6666,7 +6721,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6692,7 +6747,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6718,7 +6773,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6744,7 +6799,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6770,7 +6825,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6796,7 +6851,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6822,7 +6877,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6848,7 +6903,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6874,7 +6929,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6900,7 +6955,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6926,7 +6981,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6952,7 +7007,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6978,7 +7033,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7004,7 +7059,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7030,7 +7085,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7056,7 +7111,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7082,7 +7137,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7108,7 +7163,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7134,7 +7189,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7160,7 +7215,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7186,7 +7241,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7212,7 +7267,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7238,7 +7293,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7264,7 +7319,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7290,7 +7345,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7316,7 +7371,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7342,7 +7397,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7368,7 +7423,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7394,7 +7449,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7420,7 +7475,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7446,7 +7501,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7472,7 +7527,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7498,7 +7553,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7524,7 +7579,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7550,7 +7605,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7576,7 +7631,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7602,7 +7657,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7628,7 +7683,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7654,7 +7709,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7680,7 +7735,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7706,7 +7761,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7732,7 +7787,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7758,7 +7813,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7784,7 +7839,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7810,7 +7865,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7836,7 +7891,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7862,7 +7917,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7888,7 +7943,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7914,7 +7969,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7940,7 +7995,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7966,7 +8021,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7992,7 +8047,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8018,7 +8073,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8044,7 +8099,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8070,7 +8125,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8096,7 +8151,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8122,7 +8177,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8148,7 +8203,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8174,7 +8229,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8200,7 +8255,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8226,7 +8281,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8252,7 +8307,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8278,7 +8333,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8304,7 +8359,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8330,7 +8385,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8356,7 +8411,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8382,7 +8437,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8408,7 +8463,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8434,7 +8489,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8460,7 +8515,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8486,7 +8541,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8512,7 +8567,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8538,7 +8593,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8564,7 +8619,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8590,7 +8645,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8616,7 +8671,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8642,7 +8697,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8668,7 +8723,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8694,7 +8749,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8720,7 +8775,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8746,7 +8801,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8772,7 +8827,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8798,7 +8853,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8824,7 +8879,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8850,7 +8905,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8876,7 +8931,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8902,7 +8957,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8928,7 +8983,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8954,7 +9009,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8980,7 +9035,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9006,7 +9061,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9032,7 +9087,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9058,7 +9113,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9084,7 +9139,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9110,7 +9165,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9136,7 +9191,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9162,7 +9217,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9188,7 +9243,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9214,7 +9269,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9240,7 +9295,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9266,7 +9321,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9292,7 +9347,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9318,7 +9373,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9344,7 +9399,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9370,7 +9425,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9396,7 +9451,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9422,7 +9477,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9448,7 +9503,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9474,7 +9529,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9500,7 +9555,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9526,7 +9581,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9552,7 +9607,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9578,7 +9633,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9604,7 +9659,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9630,7 +9685,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9656,7 +9711,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9682,7 +9737,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9708,7 +9763,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9734,7 +9789,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9760,7 +9815,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9786,7 +9841,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9812,7 +9867,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9838,7 +9893,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9864,7 +9919,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9890,7 +9945,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9916,7 +9971,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9942,7 +9997,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9968,7 +10023,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9994,7 +10049,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10020,7 +10075,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10046,7 +10101,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10072,7 +10127,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10098,7 +10153,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10124,7 +10179,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10150,7 +10205,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10176,7 +10231,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10202,7 +10257,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10228,7 +10283,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10254,7 +10309,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10280,7 +10335,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10306,7 +10361,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10332,7 +10387,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10358,7 +10413,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10384,7 +10439,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10410,7 +10465,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10436,7 +10491,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10462,7 +10517,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -10488,7 +10543,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10514,7 +10569,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -10540,7 +10595,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -10566,7 +10621,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10592,7 +10647,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10618,7 +10673,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10644,7 +10699,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10670,7 +10725,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10696,7 +10751,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10722,7 +10777,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10748,7 +10803,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10774,7 +10829,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10800,7 +10855,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10826,7 +10881,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10852,7 +10907,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10878,7 +10933,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10904,7 +10959,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10930,7 +10985,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10956,7 +11011,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10982,7 +11037,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11008,7 +11063,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -11034,7 +11089,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -11060,7 +11115,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -11086,7 +11141,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -11112,7 +11167,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -11138,7 +11193,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11164,7 +11219,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11190,7 +11245,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11216,7 +11271,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11242,7 +11297,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11268,7 +11323,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -11294,7 +11349,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -11320,7 +11375,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11346,7 +11401,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11372,7 +11427,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11398,7 +11453,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11424,7 +11479,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11450,7 +11505,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11476,7 +11531,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11502,7 +11557,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11528,7 +11583,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11554,7 +11609,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11580,7 +11635,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11606,7 +11661,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11632,7 +11687,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11658,7 +11713,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11684,7 +11739,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11710,7 +11765,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -11736,7 +11791,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -11762,7 +11817,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -11788,7 +11843,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11814,7 +11869,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -11840,7 +11895,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -11866,7 +11921,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -11892,7 +11947,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -11918,7 +11973,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -11944,7 +11999,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -11970,7 +12025,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -11996,7 +12051,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -12022,7 +12077,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -12048,7 +12103,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12074,7 +12129,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12100,7 +12155,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12126,7 +12181,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12152,7 +12207,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12178,7 +12233,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12204,7 +12259,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12230,7 +12285,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12256,7 +12311,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12282,7 +12337,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12308,7 +12363,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12334,7 +12389,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12360,7 +12415,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12386,7 +12441,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12412,7 +12467,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12438,7 +12493,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -12464,7 +12519,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -12490,7 +12545,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -12516,7 +12571,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -12542,7 +12597,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -12568,7 +12623,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -12594,7 +12649,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -12620,7 +12675,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -12646,7 +12701,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -12672,7 +12727,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -12698,7 +12753,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -12724,7 +12779,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -12750,7 +12805,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -12776,7 +12831,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -12802,7 +12857,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -12828,7 +12883,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -12854,7 +12909,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -12880,7 +12935,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -12906,7 +12961,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -12932,7 +12987,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -12958,7 +13013,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -12984,7 +13039,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13010,7 +13065,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13036,7 +13091,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13062,7 +13117,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13088,7 +13143,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13114,7 +13169,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13140,7 +13195,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13166,7 +13221,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13192,7 +13247,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -13218,7 +13273,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -13244,7 +13299,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -13270,7 +13325,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -13296,7 +13351,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -13322,7 +13377,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
@@ -13348,7 +13403,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -13374,7 +13429,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -13400,7 +13455,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -13426,7 +13481,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -13452,7 +13507,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
@@ -13478,7 +13533,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -13504,7 +13559,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -13530,7 +13585,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
@@ -13556,7 +13611,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
@@ -13582,7 +13637,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
@@ -13608,7 +13663,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
@@ -13634,7 +13689,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
@@ -13660,7 +13715,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
@@ -13686,7 +13741,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
@@ -13712,7 +13767,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -13738,7 +13793,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
@@ -13764,7 +13819,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
@@ -13790,7 +13845,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
@@ -13816,7 +13871,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
@@ -13842,7 +13897,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
@@ -13874,19 +13929,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A16:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>815</v>
       </c>
@@ -13903,7 +13958,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -13923,7 +13978,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -13943,7 +13998,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -13960,7 +14015,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -13977,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -13994,7 +14049,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -14011,7 +14066,7 @@
         <v>9924</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
@@ -14028,7 +14083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
@@ -14045,7 +14100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9</v>
       </c>
@@ -14062,7 +14117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10</v>
       </c>
@@ -14079,7 +14134,7 @@
         <v>8637</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>11</v>
       </c>
@@ -14096,7 +14151,7 @@
         <v>8729</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12</v>
       </c>
@@ -14113,7 +14168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>13</v>
       </c>
@@ -14130,7 +14185,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>14</v>
       </c>
@@ -14147,7 +14202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>15</v>
       </c>
@@ -14164,7 +14219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>16</v>
       </c>
@@ -14181,7 +14236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>17</v>
       </c>
@@ -14198,7 +14253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>18</v>
       </c>
@@ -14215,7 +14270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>19</v>
       </c>
@@ -14232,7 +14287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20</v>
       </c>
@@ -14249,7 +14304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>21</v>
       </c>
@@ -14266,7 +14321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>22</v>
       </c>
@@ -14283,7 +14338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>23</v>
       </c>
@@ -14300,7 +14355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>24</v>
       </c>
@@ -14317,7 +14372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>25</v>
       </c>
@@ -14334,7 +14389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>26</v>
       </c>
@@ -14351,7 +14406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>27</v>
       </c>
@@ -14368,7 +14423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>28</v>
       </c>
@@ -14385,7 +14440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>29</v>
       </c>
@@ -14402,7 +14457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>30</v>
       </c>
@@ -14419,7 +14474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>31</v>
       </c>
@@ -14436,7 +14491,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>32</v>
       </c>
@@ -14453,7 +14508,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>33</v>
       </c>
@@ -14470,7 +14525,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>34</v>
       </c>
@@ -14487,7 +14542,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>35</v>
       </c>
@@ -14504,7 +14559,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>36</v>
       </c>
@@ -14521,7 +14576,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>37</v>
       </c>
@@ -14538,7 +14593,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>38</v>
       </c>
@@ -14555,7 +14610,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>39</v>
       </c>
@@ -14572,7 +14627,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>40</v>
       </c>
@@ -14589,7 +14644,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>41</v>
       </c>
@@ -14606,7 +14661,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>42</v>
       </c>
@@ -14623,7 +14678,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>43</v>
       </c>
@@ -14640,7 +14695,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>44</v>
       </c>
@@ -14657,7 +14712,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>45</v>
       </c>
@@ -14674,7 +14729,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>46</v>
       </c>
@@ -14697,16 +14752,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>868</v>
       </c>
@@ -14717,7 +14775,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>866</v>
       </c>
@@ -14740,16 +14798,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
         <v>818</v>
       </c>
@@ -14757,7 +14815,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>870</v>
       </c>
@@ -14777,44 +14835,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C2:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
     <col min="18" max="18" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E2" s="2" t="s">
         <v>874</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>903</v>
+        <v>874</v>
       </c>
       <c r="L2" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>875</v>
       </c>
       <c r="K4" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+      <c r="L4" t="s">
+        <v>820</v>
+      </c>
+      <c r="M4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
@@ -14826,7 +14891,10 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" t="s">
-        <v>905</v>
+        <v>904</v>
+      </c>
+      <c r="L5" t="s">
+        <v>821</v>
       </c>
       <c r="R5" t="s">
         <v>816</v>
@@ -14841,12 +14909,15 @@
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>877</v>
       </c>
       <c r="K6" t="s">
-        <v>906</v>
+        <v>905</v>
+      </c>
+      <c r="L6" t="s">
+        <v>822</v>
       </c>
       <c r="R6" t="s">
         <v>820</v>
@@ -14861,14 +14932,17 @@
         <v>9055</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>879</v>
       </c>
       <c r="K7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L7" t="s">
+        <v>824</v>
+      </c>
+      <c r="M7" t="s">
         <v>912</v>
       </c>
       <c r="R7" t="s">
@@ -14884,12 +14958,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>880</v>
       </c>
       <c r="K8" t="s">
-        <v>908</v>
+        <v>907</v>
+      </c>
+      <c r="L8" t="s">
+        <v>825</v>
       </c>
       <c r="R8" t="s">
         <v>822</v>
@@ -14904,7 +14981,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
       <c r="R9" t="s">
         <v>823</v>
       </c>
@@ -14918,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>824</v>
       </c>
@@ -14932,12 +15009,15 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>881</v>
       </c>
       <c r="K11" t="s">
-        <v>909</v>
+        <v>908</v>
+      </c>
+      <c r="L11" t="s">
+        <v>826</v>
       </c>
       <c r="R11" t="s">
         <v>825</v>
@@ -14952,15 +15032,18 @@
         <v>9924</v>
       </c>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>878</v>
       </c>
       <c r="K12" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L12" t="s">
-        <v>912</v>
+        <v>823</v>
+      </c>
+      <c r="M12" t="s">
+        <v>911</v>
       </c>
       <c r="R12" t="s">
         <v>826</v>
@@ -14975,12 +15058,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>882</v>
       </c>
       <c r="K13" t="s">
-        <v>911</v>
+        <v>910</v>
+      </c>
+      <c r="L13" t="s">
+        <v>831</v>
       </c>
       <c r="R13" t="s">
         <v>831</v>
@@ -14995,32 +15081,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L18" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L19" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L23" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>883</v>
       </c>
@@ -15028,7 +15114,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
         <v>884</v>
       </c>
@@ -15037,52 +15123,52 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>894</v>
       </c>
@@ -15093,15 +15179,21 @@
         <v>895</v>
       </c>
       <c r="L35" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+      <c r="M35" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>870</v>
       </c>
       <c r="K38" t="s">
         <v>870</v>
+      </c>
+      <c r="L38" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
